--- a/medicine/Médecine vétérinaire/Pleuropneumonie_contagieuse_bovine/Pleuropneumonie_contagieuse_bovine.xlsx
+++ b/medicine/Médecine vétérinaire/Pleuropneumonie_contagieuse_bovine/Pleuropneumonie_contagieuse_bovine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pleuropneumonie contagieuse bovine, ou péripneumonie contagieuse bovine (PPCB), est une grave maladie bactérienne affectant les poumons des bœufs, des bisons, des zébus et des yacks.
-Elle est causée par la bactérie Mycoplasma mycoides mycoides et provoque chez les animaux atteints des pneumonies et une inflammation des enveloppes des poumons[1]. La période d'incubation est de 20 à 123 jours. Cette maladie a été particulièrement répandue aux États-Unis en 1879, où elle a atteint des troupeaux dans plusieurs états. L'épizootie a été si grave qu'elle a conduit à un embargo du gouvernement britannique, qui a interdit l'exportation du bétail américain vers la Grande-Bretagne et le Canada. Cet embargo a incité les États-Unis à créer le Bureau of Animal Industry (en), mis en place en 1884 pour éradiquer la maladie. Ce résultat a été atteint. En Australie, la maladie a été éradiquée en 1973[2].
+Elle est causée par la bactérie Mycoplasma mycoides mycoides et provoque chez les animaux atteints des pneumonies et une inflammation des enveloppes des poumons. La période d'incubation est de 20 à 123 jours. Cette maladie a été particulièrement répandue aux États-Unis en 1879, où elle a atteint des troupeaux dans plusieurs états. L'épizootie a été si grave qu'elle a conduit à un embargo du gouvernement britannique, qui a interdit l'exportation du bétail américain vers la Grande-Bretagne et le Canada. Cet embargo a incité les États-Unis à créer le Bureau of Animal Industry (en), mis en place en 1884 pour éradiquer la maladie. Ce résultat a été atteint. En Australie, la maladie a été éradiquée en 1973.
 Le médecin belge Louis Willems (en) a été le premier, dans les années 1850, à étudier l'inoculation animale pour lutter contre la maladie.
 La bactérie Mycoplasma mycoides mycoides est largement répandue en Afrique, au Moyen-Orient, dans le sud de l'Europe et dans certaines régions d'Asie. Elle se transmet par voie aérienne, pouvant franchir plusieurs kilomètres si les conditions lui sont propices.
 </t>
